--- a/Code/Results/Cases/Case_5_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.545988823858465</v>
+        <v>1.363018046572336</v>
       </c>
       <c r="C2">
-        <v>0.3681624532672458</v>
+        <v>0.1319761253530487</v>
       </c>
       <c r="D2">
-        <v>0.06549823065679306</v>
+        <v>0.1317583377188782</v>
       </c>
       <c r="E2">
-        <v>0.0412114808545585</v>
+        <v>0.1135247653422216</v>
       </c>
       <c r="F2">
-        <v>0.7724366718443179</v>
+        <v>1.491495209042576</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3528985477738971</v>
+        <v>0.8675160636340387</v>
       </c>
       <c r="J2">
-        <v>0.04364045569458064</v>
+        <v>0.1293826194608663</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3034714255448989</v>
+        <v>0.3492390935781771</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8128882498613379</v>
+        <v>1.337447668177361</v>
       </c>
       <c r="O2">
-        <v>1.965262634214071</v>
+        <v>3.774698043901594</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.218024251852228</v>
+        <v>1.268414032269447</v>
       </c>
       <c r="C3">
-        <v>0.3259583591150488</v>
+        <v>0.1183424876848846</v>
       </c>
       <c r="D3">
-        <v>0.06125234820112269</v>
+        <v>0.131125836358791</v>
       </c>
       <c r="E3">
-        <v>0.04105573586549305</v>
+        <v>0.1140544486402408</v>
       </c>
       <c r="F3">
-        <v>0.7371750299006692</v>
+        <v>1.494010841709823</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3535161401113385</v>
+        <v>0.8749475156127282</v>
       </c>
       <c r="J3">
-        <v>0.04512322545460012</v>
+        <v>0.1304495154350125</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2715067621625877</v>
+        <v>0.3418900136483387</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8301186200359538</v>
+        <v>1.346526100104349</v>
       </c>
       <c r="O3">
-        <v>1.880113616217614</v>
+        <v>3.78417970128092</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.017091688186497</v>
+        <v>1.210577653479788</v>
       </c>
       <c r="C4">
-        <v>0.3000132357958307</v>
+        <v>0.1099183619527651</v>
       </c>
       <c r="D4">
-        <v>0.05868909705322523</v>
+        <v>0.1307741754445146</v>
       </c>
       <c r="E4">
-        <v>0.04100530559166859</v>
+        <v>0.1144139746642381</v>
       </c>
       <c r="F4">
-        <v>0.7169485039700305</v>
+        <v>1.496348933200686</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3547206598922976</v>
+        <v>0.8799707412762743</v>
       </c>
       <c r="J4">
-        <v>0.04608941500680075</v>
+        <v>0.1311442677010053</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2520736041551856</v>
+        <v>0.3375047485304492</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8416834151448072</v>
+        <v>1.352589935462198</v>
       </c>
       <c r="O4">
-        <v>1.831849981204755</v>
+        <v>3.792141254159873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.935295770782261</v>
+        <v>1.18707369094156</v>
       </c>
       <c r="C5">
-        <v>0.2894294713054819</v>
+        <v>0.1064723040743445</v>
       </c>
       <c r="D5">
-        <v>0.05765510699480103</v>
+        <v>0.1306401417731351</v>
       </c>
       <c r="E5">
-        <v>0.040995854699581</v>
+        <v>0.1145691258371473</v>
       </c>
       <c r="F5">
-        <v>0.7090463057999301</v>
+        <v>1.497501328810465</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3554103708984933</v>
+        <v>0.8821334609037415</v>
       </c>
       <c r="J5">
-        <v>0.04649691528184796</v>
+        <v>0.1314373718628126</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.244199276074653</v>
+        <v>0.3357498559434902</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.846637014020601</v>
+        <v>1.35518427571813</v>
       </c>
       <c r="O5">
-        <v>1.81314043984716</v>
+        <v>3.795923685846674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.921718106934122</v>
+        <v>1.183174843045606</v>
       </c>
       <c r="C6">
-        <v>0.287671303147377</v>
+        <v>0.1058992991750358</v>
       </c>
       <c r="D6">
-        <v>0.05748403878128983</v>
+        <v>0.1306184467999216</v>
       </c>
       <c r="E6">
-        <v>0.04099494824711858</v>
+        <v>0.1145954109848661</v>
       </c>
       <c r="F6">
-        <v>0.7077541974188364</v>
+        <v>1.497704741107462</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3555366615078306</v>
+        <v>0.8824995669083187</v>
       </c>
       <c r="J6">
-        <v>0.04656540490694727</v>
+        <v>0.1314866450882857</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2428943522132272</v>
+        <v>0.3354604037075433</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474739070455968</v>
+        <v>1.355622514239428</v>
       </c>
       <c r="O6">
-        <v>1.810090136243787</v>
+        <v>3.796584250873821</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015988244219329</v>
+        <v>1.210260406003158</v>
       </c>
       <c r="C7">
-        <v>0.2998705474186636</v>
+        <v>0.1098719402574488</v>
       </c>
       <c r="D7">
-        <v>0.05867511012996118</v>
+        <v>0.1307723302245236</v>
       </c>
       <c r="E7">
-        <v>0.04100513353294222</v>
+        <v>0.1144160320760852</v>
       </c>
       <c r="F7">
-        <v>0.7168405773881332</v>
+        <v>1.496363666520089</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3547291675693138</v>
+        <v>0.8799994399841466</v>
       </c>
       <c r="J7">
-        <v>0.04609485526808044</v>
+        <v>0.1311481801548764</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2519672314712409</v>
+        <v>0.3374809510700771</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8417492547744487</v>
+        <v>1.352624424287903</v>
       </c>
       <c r="O7">
-        <v>1.831593844791627</v>
+        <v>3.792190086920783</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.432800119709668</v>
+        <v>1.330347532172027</v>
       </c>
       <c r="C8">
-        <v>0.353615193935525</v>
+        <v>0.127286350801171</v>
       </c>
       <c r="D8">
-        <v>0.0640248973965214</v>
+        <v>0.1315326601370188</v>
       </c>
       <c r="E8">
-        <v>0.04114823560590786</v>
+        <v>0.1137002915650669</v>
       </c>
       <c r="F8">
-        <v>0.7599718178760568</v>
+        <v>1.49219795441185</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3529348528471878</v>
+        <v>0.8699828794213573</v>
       </c>
       <c r="J8">
-        <v>0.04413998657900287</v>
+        <v>0.129742257377738</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2924075600181197</v>
+        <v>0.3466788552539413</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8186205216841884</v>
+        <v>1.340476377374102</v>
       </c>
       <c r="O8">
-        <v>1.935037080854386</v>
+        <v>3.777523182387426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.25487810833971</v>
+        <v>1.567763831769753</v>
       </c>
       <c r="C9">
-        <v>0.4589057127544436</v>
+        <v>0.1610092086419002</v>
       </c>
       <c r="D9">
-        <v>0.07488459330604513</v>
+        <v>0.1333131096201114</v>
       </c>
       <c r="E9">
-        <v>0.04180011356752544</v>
+        <v>0.1125681463084778</v>
       </c>
       <c r="F9">
-        <v>0.8567071695100168</v>
+        <v>1.490323190112733</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3563766299088407</v>
+        <v>0.8539940328816868</v>
       </c>
       <c r="J9">
-        <v>0.04076072149880083</v>
+        <v>0.127299538002644</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3734282982980801</v>
+        <v>0.3657177520953496</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7814114404937555</v>
+        <v>1.320532702456532</v>
       </c>
       <c r="O9">
-        <v>2.172262920431507</v>
+        <v>3.765745028524663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.863614203485781</v>
+        <v>1.743298454633702</v>
       </c>
       <c r="C10">
-        <v>0.5364296283803469</v>
+        <v>0.1855193228262806</v>
       </c>
       <c r="D10">
-        <v>0.08312094052634222</v>
+        <v>0.1347955671645025</v>
       </c>
       <c r="E10">
-        <v>0.04252394309361129</v>
+        <v>0.1119008765462031</v>
       </c>
       <c r="F10">
-        <v>0.9364520972741133</v>
+        <v>1.492782960875971</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3637539611493423</v>
+        <v>0.8444766532774324</v>
       </c>
       <c r="J10">
-        <v>0.03857190603792837</v>
+        <v>0.125695744995328</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4342787183144736</v>
+        <v>0.3803091986810045</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7595230807368054</v>
+        <v>1.308236287807958</v>
       </c>
       <c r="O10">
-        <v>2.371192232709632</v>
+        <v>3.76745868650525</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.142031928506015</v>
+        <v>1.82338005755571</v>
       </c>
       <c r="C11">
-        <v>0.5717895371345207</v>
+        <v>0.1966107164489017</v>
       </c>
       <c r="D11">
-        <v>0.08693169964417535</v>
+        <v>0.1355074090039921</v>
       </c>
       <c r="E11">
-        <v>0.04291077915469721</v>
+        <v>0.1116328437664276</v>
       </c>
       <c r="F11">
-        <v>0.9749138164990967</v>
+        <v>1.494735361813753</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3683064423369657</v>
+        <v>0.8406316217869829</v>
       </c>
       <c r="J11">
-        <v>0.03764397105381434</v>
+        <v>0.1250074293809416</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4623152801871697</v>
+        <v>0.3870768737381951</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7508634288353164</v>
+        <v>1.303152315004709</v>
       </c>
       <c r="O11">
-        <v>2.467917342709285</v>
+        <v>3.770492679373007</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.247717107158905</v>
+        <v>1.853736419578695</v>
       </c>
       <c r="C12">
-        <v>0.5851978565087279</v>
+        <v>0.2008021969644744</v>
       </c>
       <c r="D12">
-        <v>0.088384624988322</v>
+        <v>0.1357823120924309</v>
       </c>
       <c r="E12">
-        <v>0.04306592763314576</v>
+        <v>0.1115364369966017</v>
       </c>
       <c r="F12">
-        <v>0.9898193181989541</v>
+        <v>1.495594505083233</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3702152574918429</v>
+        <v>0.8392453196192449</v>
       </c>
       <c r="J12">
-        <v>0.03730268989990648</v>
+        <v>0.1247527042709518</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4729889599492338</v>
+        <v>0.3896581472352949</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7477811404670121</v>
+        <v>1.301300322304265</v>
       </c>
       <c r="O12">
-        <v>2.505519079525754</v>
+        <v>3.771965926825061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.22494394910666</v>
+        <v>1.847197276270322</v>
       </c>
       <c r="C13">
-        <v>0.5823092409263495</v>
+        <v>0.1998998717558038</v>
       </c>
       <c r="D13">
-        <v>0.08807126120817088</v>
+        <v>0.1357228698052921</v>
       </c>
       <c r="E13">
-        <v>0.04303212200024653</v>
+        <v>0.1115569737166471</v>
       </c>
       <c r="F13">
-        <v>0.9865935465422524</v>
+        <v>1.495404145143027</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3697957231010278</v>
+        <v>0.8395407824559058</v>
       </c>
       <c r="J13">
-        <v>0.03737573534649208</v>
+        <v>0.1248073004845267</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.470687568032389</v>
+        <v>0.3891014038760119</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.748436035353869</v>
+        <v>1.301695928146657</v>
       </c>
       <c r="O13">
-        <v>2.497376250145976</v>
+        <v>3.771634209066235</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.150721380395453</v>
+        <v>1.825876879249279</v>
       </c>
       <c r="C14">
-        <v>0.5728922521944924</v>
+        <v>0.1969557253326286</v>
       </c>
       <c r="D14">
-        <v>0.08705103079745413</v>
+        <v>0.13552991859153</v>
       </c>
       <c r="E14">
-        <v>0.0429233674231444</v>
+        <v>0.1116248103699302</v>
       </c>
       <c r="F14">
-        <v>0.9761331100153257</v>
+        <v>1.494803643056997</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3684596995694847</v>
+        <v>0.8405161720730803</v>
       </c>
       <c r="J14">
-        <v>0.03761568891783007</v>
+        <v>0.1249863542898844</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.463192236659637</v>
+        <v>0.3872888669183823</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7506058384610128</v>
+        <v>1.302998484024968</v>
       </c>
       <c r="O14">
-        <v>2.470990872352104</v>
+        <v>3.770607383188462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.10529224693056</v>
+        <v>1.812821527499182</v>
       </c>
       <c r="C15">
-        <v>0.5671266056313016</v>
+        <v>0.1951512262584458</v>
       </c>
       <c r="D15">
-        <v>0.0864274167413015</v>
+        <v>0.1354124250700863</v>
       </c>
       <c r="E15">
-        <v>0.04285789198887358</v>
+        <v>0.1116670248859499</v>
       </c>
       <c r="F15">
-        <v>0.9697710061951454</v>
+        <v>1.494451420092858</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3676658206663674</v>
+        <v>0.841122708815611</v>
       </c>
       <c r="J15">
-        <v>0.03776399487205317</v>
+        <v>0.1250968013065723</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4586087098365681</v>
+        <v>0.3861810396870737</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7519608713819039</v>
+        <v>1.303805866670189</v>
       </c>
       <c r="O15">
-        <v>2.454958325161641</v>
+        <v>3.770020665912085</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.845452381241103</v>
+        <v>1.738069401397638</v>
       </c>
       <c r="C16">
-        <v>0.5341210645308934</v>
+        <v>0.184793282774109</v>
       </c>
       <c r="D16">
-        <v>0.08287324256268391</v>
+        <v>0.1347497968018772</v>
       </c>
       <c r="E16">
-        <v>0.04249985308716298</v>
+        <v>0.1119191064106921</v>
       </c>
       <c r="F16">
-        <v>0.9339847427074375</v>
+        <v>1.492672134729432</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3634815996046399</v>
+        <v>0.8447376891870633</v>
       </c>
       <c r="J16">
-        <v>0.03863394294582356</v>
+        <v>0.1257415575885137</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4324540953624592</v>
+        <v>0.3798695143441506</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7601159877407468</v>
+        <v>1.308578785692546</v>
       </c>
       <c r="O16">
-        <v>2.365002948937189</v>
+        <v>3.767305786278428</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.686459936909387</v>
+        <v>1.692268968716462</v>
       </c>
       <c r="C17">
-        <v>0.5139005614635721</v>
+        <v>0.1784239288643903</v>
       </c>
       <c r="D17">
-        <v>0.08070972655088582</v>
+        <v>0.1343528605154916</v>
       </c>
       <c r="E17">
-        <v>0.04229521714527706</v>
+        <v>0.1120828348686214</v>
       </c>
       <c r="F17">
-        <v>0.9126091203069819</v>
+        <v>1.49179403894928</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3612300261037191</v>
+        <v>0.8470794911240134</v>
       </c>
       <c r="J17">
-        <v>0.03918523617813285</v>
+        <v>0.1261476562662125</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4165040626991896</v>
+        <v>0.3760307501456595</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7654583576718608</v>
+        <v>1.311637297256262</v>
       </c>
       <c r="O17">
-        <v>2.311467973400198</v>
+        <v>3.766217822271557</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.595150445568493</v>
+        <v>1.66594753415427</v>
       </c>
       <c r="C18">
-        <v>0.5022787901845049</v>
+        <v>0.1747549615460855</v>
       </c>
       <c r="D18">
-        <v>0.07947131082110559</v>
+        <v>0.1341280821780941</v>
       </c>
       <c r="E18">
-        <v>0.04218290959897608</v>
+        <v>0.1121803505643673</v>
       </c>
       <c r="F18">
-        <v>0.9005184220930857</v>
+        <v>1.491367430873723</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3600467818233568</v>
+        <v>0.8484720308092619</v>
       </c>
       <c r="J18">
-        <v>0.03950868114588957</v>
+        <v>0.1263851173288089</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4073631099604995</v>
+        <v>0.3738350373448469</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7686526118478128</v>
+        <v>1.313444455934174</v>
       </c>
       <c r="O18">
-        <v>2.281257592120198</v>
+        <v>3.765804243674353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564257323882885</v>
+        <v>1.657039343830775</v>
       </c>
       <c r="C19">
-        <v>0.4983451833845152</v>
+        <v>0.1735117764034442</v>
       </c>
       <c r="D19">
-        <v>0.07905301220663574</v>
+        <v>0.134052583511064</v>
       </c>
       <c r="E19">
-        <v>0.04214579922189543</v>
+        <v>0.1122139423993129</v>
       </c>
       <c r="F19">
-        <v>0.8964589742057569</v>
+        <v>1.491236463563368</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3596649806862686</v>
+        <v>0.8489513503086528</v>
       </c>
       <c r="J19">
-        <v>0.03961927495221929</v>
+        <v>0.1264661848562634</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4042736547193897</v>
+        <v>0.3730937150838685</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7697546884968034</v>
+        <v>1.314064573212008</v>
       </c>
       <c r="O19">
-        <v>2.27112646516278</v>
+        <v>3.765700652108279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.703370322844307</v>
+        <v>1.697142264208026</v>
       </c>
       <c r="C20">
-        <v>0.5160521526054538</v>
+        <v>0.1791025263851509</v>
       </c>
       <c r="D20">
-        <v>0.08093941276316485</v>
+        <v>0.1343947501459297</v>
       </c>
       <c r="E20">
-        <v>0.04231644005969315</v>
+        <v>0.1120650597732986</v>
       </c>
       <c r="F20">
-        <v>0.9148632921441191</v>
+        <v>1.49187939478486</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3614580487552956</v>
+        <v>0.8468254827309778</v>
       </c>
       <c r="J20">
-        <v>0.03912588972620235</v>
+        <v>0.1261040244618385</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4181985066089453</v>
+        <v>0.3764381274032473</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7648770093233423</v>
+        <v>1.311306748087517</v>
       </c>
       <c r="O20">
-        <v>2.317106130245435</v>
+        <v>3.766311675950845</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.172515119729326</v>
+        <v>1.832138364955142</v>
       </c>
       <c r="C21">
-        <v>0.5756577134755503</v>
+        <v>0.1978207271721431</v>
       </c>
       <c r="D21">
-        <v>0.0873504236565168</v>
+        <v>0.135586448350125</v>
       </c>
       <c r="E21">
-        <v>0.04295507300693302</v>
+        <v>0.1116047470406105</v>
       </c>
       <c r="F21">
-        <v>0.9791961206916255</v>
+        <v>1.494976773718747</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3688469975226809</v>
+        <v>0.8402277836174576</v>
       </c>
       <c r="J21">
-        <v>0.037544931416436</v>
+        <v>0.1249336011034536</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4653922066485165</v>
+        <v>0.3878207523001294</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.749963083960516</v>
+        <v>1.30261390601099</v>
       </c>
       <c r="O21">
-        <v>2.47871381287959</v>
+        <v>3.77090018311651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.480631543338802</v>
+        <v>1.920547090840955</v>
       </c>
       <c r="C22">
-        <v>0.6147225231523237</v>
+        <v>0.210003996978827</v>
       </c>
       <c r="D22">
-        <v>0.09159828657245583</v>
+        <v>0.1363964211121527</v>
       </c>
       <c r="E22">
-        <v>0.04342314190746599</v>
+        <v>0.1113335758302743</v>
       </c>
       <c r="F22">
-        <v>1.023242016117976</v>
+        <v>1.497699425404832</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3747603875935113</v>
+        <v>0.8363222613351837</v>
       </c>
       <c r="J22">
-        <v>0.03657078373822387</v>
+        <v>0.124203194114159</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4965703138694977</v>
+        <v>0.3953677127062605</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7413691666109514</v>
+        <v>1.297359238563651</v>
       </c>
       <c r="O22">
-        <v>2.590051515081853</v>
+        <v>3.77578961132491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.31603289131175</v>
+        <v>1.873345751389991</v>
       </c>
       <c r="C23">
-        <v>0.5938612220190294</v>
+        <v>0.2035062101198832</v>
       </c>
       <c r="D23">
-        <v>0.08932559060846756</v>
+        <v>0.1359612893698312</v>
       </c>
       <c r="E23">
-        <v>0.04316855350673343</v>
+        <v>0.1114755951941202</v>
       </c>
       <c r="F23">
-        <v>0.9995415316974174</v>
+        <v>1.496182409259319</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3715006117844553</v>
+        <v>0.8383695011217114</v>
       </c>
       <c r="J23">
-        <v>0.03708517129877009</v>
+        <v>0.1245898688988714</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4798973745169377</v>
+        <v>0.391329959269811</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.74584677874752</v>
+        <v>1.300124750963661</v>
       </c>
       <c r="O23">
-        <v>2.530078059058184</v>
+        <v>3.773006993252608</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.695724836921613</v>
+        <v>1.694939016506737</v>
       </c>
       <c r="C24">
-        <v>0.5150794084362929</v>
+        <v>0.178795754676969</v>
       </c>
       <c r="D24">
-        <v>0.0808355547993358</v>
+        <v>0.1343758011707195</v>
       </c>
       <c r="E24">
-        <v>0.04230682857479273</v>
+        <v>0.1120730853458198</v>
       </c>
       <c r="F24">
-        <v>0.9138435649772418</v>
+        <v>1.491840561754771</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3613546142637389</v>
+        <v>0.8469401759981352</v>
       </c>
       <c r="J24">
-        <v>0.03915270004079119</v>
+        <v>0.1261237379731011</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.417432358824442</v>
+        <v>0.3762539171085564</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7651394550226769</v>
+        <v>1.311456037411489</v>
       </c>
       <c r="O24">
-        <v>2.314555357453969</v>
+        <v>3.766268584633707</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.031793502659298</v>
+        <v>1.503337425576547</v>
       </c>
       <c r="C25">
-        <v>0.430410190809738</v>
+        <v>0.1519325806499694</v>
       </c>
       <c r="D25">
-        <v>0.07190400753636084</v>
+        <v>0.1328006805201127</v>
       </c>
       <c r="E25">
-        <v>0.04158216469043374</v>
+        <v>0.1128454624313697</v>
       </c>
       <c r="F25">
-        <v>0.8291107939051585</v>
+        <v>1.490156521343934</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3546401430407293</v>
+        <v>0.8579280601583186</v>
       </c>
       <c r="J25">
-        <v>0.04162457460155711</v>
+        <v>0.1279267868464409</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3512986502842068</v>
+        <v>0.3604607156106283</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7905573973644664</v>
+        <v>1.325513640109541</v>
       </c>
       <c r="O25">
-        <v>2.104040967152912</v>
+        <v>3.767111731833609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.363018046572336</v>
+        <v>2.545988823858352</v>
       </c>
       <c r="C2">
-        <v>0.1319761253530487</v>
+        <v>0.3681624532667627</v>
       </c>
       <c r="D2">
-        <v>0.1317583377188782</v>
+        <v>0.06549823065678595</v>
       </c>
       <c r="E2">
-        <v>0.1135247653422216</v>
+        <v>0.04121148085456916</v>
       </c>
       <c r="F2">
-        <v>1.491495209042576</v>
+        <v>0.7724366718443179</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.8675160636340387</v>
+        <v>0.3528985477739006</v>
       </c>
       <c r="J2">
-        <v>0.1293826194608663</v>
+        <v>0.04364045569459307</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3492390935781771</v>
+        <v>0.3034714255448847</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.337447668177361</v>
+        <v>0.8128882498613237</v>
       </c>
       <c r="O2">
-        <v>3.774698043901594</v>
+        <v>1.965262634214042</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.268414032269447</v>
+        <v>2.218024251852057</v>
       </c>
       <c r="C3">
-        <v>0.1183424876848846</v>
+        <v>0.3259583591150488</v>
       </c>
       <c r="D3">
-        <v>0.131125836358791</v>
+        <v>0.0612523482012719</v>
       </c>
       <c r="E3">
-        <v>0.1140544486402408</v>
+        <v>0.04105573586549305</v>
       </c>
       <c r="F3">
-        <v>1.494010841709823</v>
+        <v>0.7371750299006976</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8749475156127282</v>
+        <v>0.3535161401113491</v>
       </c>
       <c r="J3">
-        <v>0.1304495154350125</v>
+        <v>0.04512322545462677</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3418900136483387</v>
+        <v>0.2715067621625167</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.346526100104349</v>
+        <v>0.8301186200359609</v>
       </c>
       <c r="O3">
-        <v>3.78417970128092</v>
+        <v>1.880113616217614</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.210577653479788</v>
+        <v>2.01709168818644</v>
       </c>
       <c r="C4">
-        <v>0.1099183619527651</v>
+        <v>0.3000132357957597</v>
       </c>
       <c r="D4">
-        <v>0.1307741754445146</v>
+        <v>0.05868909705333181</v>
       </c>
       <c r="E4">
-        <v>0.1144139746642381</v>
+        <v>0.04100530559166771</v>
       </c>
       <c r="F4">
-        <v>1.496348933200686</v>
+        <v>0.7169485039700518</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8799707412762743</v>
+        <v>0.3547206598923047</v>
       </c>
       <c r="J4">
-        <v>0.1311442677010053</v>
+        <v>0.04608941500685138</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3375047485304492</v>
+        <v>0.2520736041552141</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.352589935462198</v>
+        <v>0.8416834151448072</v>
       </c>
       <c r="O4">
-        <v>3.792141254159873</v>
+        <v>1.831849981204698</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.18707369094156</v>
+        <v>1.93529577078229</v>
       </c>
       <c r="C5">
-        <v>0.1064723040743445</v>
+        <v>0.2894294713054819</v>
       </c>
       <c r="D5">
-        <v>0.1306401417731351</v>
+        <v>0.05765510699514209</v>
       </c>
       <c r="E5">
-        <v>0.1145691258371473</v>
+        <v>0.04099585469959521</v>
       </c>
       <c r="F5">
-        <v>1.497501328810465</v>
+        <v>0.7090463057999017</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8821334609037415</v>
+        <v>0.3554103708984826</v>
       </c>
       <c r="J5">
-        <v>0.1314373718628126</v>
+        <v>0.04649691528178845</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3357498559434902</v>
+        <v>0.2441992760746956</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.35518427571813</v>
+        <v>0.8466370140205939</v>
       </c>
       <c r="O5">
-        <v>3.795923685846674</v>
+        <v>1.81314043984716</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.183174843045606</v>
+        <v>1.921718106934065</v>
       </c>
       <c r="C6">
-        <v>0.1058992991750358</v>
+        <v>0.2876713031473201</v>
       </c>
       <c r="D6">
-        <v>0.1306184467999216</v>
+        <v>0.05748403878142483</v>
       </c>
       <c r="E6">
-        <v>0.1145954109848661</v>
+        <v>0.04099494824713545</v>
       </c>
       <c r="F6">
-        <v>1.497704741107462</v>
+        <v>0.7077541974188364</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8824995669083187</v>
+        <v>0.3555366615078306</v>
       </c>
       <c r="J6">
-        <v>0.1314866450882857</v>
+        <v>0.04656540490694727</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3354604037075433</v>
+        <v>0.2428943522131988</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.355622514239428</v>
+        <v>0.8474739070455897</v>
       </c>
       <c r="O6">
-        <v>3.796584250873821</v>
+        <v>1.810090136243758</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.210260406003158</v>
+        <v>2.015988244219272</v>
       </c>
       <c r="C7">
-        <v>0.1098719402574488</v>
+        <v>0.2998705474186352</v>
       </c>
       <c r="D7">
-        <v>0.1307723302245236</v>
+        <v>0.05867511012989013</v>
       </c>
       <c r="E7">
-        <v>0.1144160320760852</v>
+        <v>0.04100513353293866</v>
       </c>
       <c r="F7">
-        <v>1.496363666520089</v>
+        <v>0.7168405773881616</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8799994399841466</v>
+        <v>0.3547291675693351</v>
       </c>
       <c r="J7">
-        <v>0.1311481801548764</v>
+        <v>0.04609485526815948</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3374809510700771</v>
+        <v>0.2519672314711983</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.352624424287903</v>
+        <v>0.8417492547745198</v>
       </c>
       <c r="O7">
-        <v>3.792190086920783</v>
+        <v>1.83159384479174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330347532172027</v>
+        <v>2.432800119709896</v>
       </c>
       <c r="C8">
-        <v>0.127286350801171</v>
+        <v>0.3536151939354966</v>
       </c>
       <c r="D8">
-        <v>0.1315326601370188</v>
+        <v>0.06402489739645034</v>
       </c>
       <c r="E8">
-        <v>0.1137002915650669</v>
+        <v>0.04114823560590786</v>
       </c>
       <c r="F8">
-        <v>1.49219795441185</v>
+        <v>0.7599718178760568</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8699828794213573</v>
+        <v>0.3529348528471736</v>
       </c>
       <c r="J8">
-        <v>0.129742257377738</v>
+        <v>0.04413998657897178</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3466788552539413</v>
+        <v>0.2924075600180203</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.340476377374102</v>
+        <v>0.8186205216841316</v>
       </c>
       <c r="O8">
-        <v>3.777523182387426</v>
+        <v>1.935037080854414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.567763831769753</v>
+        <v>3.254878108339824</v>
       </c>
       <c r="C9">
-        <v>0.1610092086419002</v>
+        <v>0.458905712754671</v>
       </c>
       <c r="D9">
-        <v>0.1333131096201114</v>
+        <v>0.07488459330602382</v>
       </c>
       <c r="E9">
-        <v>0.1125681463084778</v>
+        <v>0.04180011356752189</v>
       </c>
       <c r="F9">
-        <v>1.490323190112733</v>
+        <v>0.8567071695100168</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.8539940328816868</v>
+        <v>0.3563766299088265</v>
       </c>
       <c r="J9">
-        <v>0.127299538002644</v>
+        <v>0.04076072149879106</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3657177520953496</v>
+        <v>0.373428298298137</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.320532702456532</v>
+        <v>0.7814114404937342</v>
       </c>
       <c r="O9">
-        <v>3.765745028524663</v>
+        <v>2.172262920431479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.743298454633702</v>
+        <v>3.863614203485952</v>
       </c>
       <c r="C10">
-        <v>0.1855193228262806</v>
+        <v>0.5364296283804606</v>
       </c>
       <c r="D10">
-        <v>0.1347955671645025</v>
+        <v>0.08312094052655539</v>
       </c>
       <c r="E10">
-        <v>0.1119008765462031</v>
+        <v>0.0425239430936184</v>
       </c>
       <c r="F10">
-        <v>1.492782960875971</v>
+        <v>0.9364520972740991</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.8444766532774324</v>
+        <v>0.3637539611493352</v>
       </c>
       <c r="J10">
-        <v>0.125695744995328</v>
+        <v>0.03857190603797456</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3803091986810045</v>
+        <v>0.434278718314502</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.308236287807958</v>
+        <v>0.7595230807368054</v>
       </c>
       <c r="O10">
-        <v>3.76745868650525</v>
+        <v>2.371192232709689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.82338005755571</v>
+        <v>4.142031928506071</v>
       </c>
       <c r="C11">
-        <v>0.1966107164489017</v>
+        <v>0.5717895371345207</v>
       </c>
       <c r="D11">
-        <v>0.1355074090039921</v>
+        <v>0.08693169964417535</v>
       </c>
       <c r="E11">
-        <v>0.1116328437664276</v>
+        <v>0.04291077915469721</v>
       </c>
       <c r="F11">
-        <v>1.494735361813753</v>
+        <v>0.9749138164991109</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.8406316217869829</v>
+        <v>0.3683064423369657</v>
       </c>
       <c r="J11">
-        <v>0.1250074293809416</v>
+        <v>0.03764397105386585</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3870768737381951</v>
+        <v>0.4623152801872266</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.303152315004709</v>
+        <v>0.7508634288353164</v>
       </c>
       <c r="O11">
-        <v>3.770492679373007</v>
+        <v>2.467917342709285</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.853736419578695</v>
+        <v>4.247717107158962</v>
       </c>
       <c r="C12">
-        <v>0.2008021969644744</v>
+        <v>0.5851978565087279</v>
       </c>
       <c r="D12">
-        <v>0.1357823120924309</v>
+        <v>0.08838462498844279</v>
       </c>
       <c r="E12">
-        <v>0.1115364369966017</v>
+        <v>0.04306592763314576</v>
       </c>
       <c r="F12">
-        <v>1.495594505083233</v>
+        <v>0.9898193181989257</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.8392453196192449</v>
+        <v>0.3702152574918571</v>
       </c>
       <c r="J12">
-        <v>0.1247527042709518</v>
+        <v>0.03730268989980878</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3896581472352949</v>
+        <v>0.472988959949177</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.301300322304265</v>
+        <v>0.7477811404670049</v>
       </c>
       <c r="O12">
-        <v>3.771965926825061</v>
+        <v>2.505519079525726</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.847197276270322</v>
+        <v>4.224943949106546</v>
       </c>
       <c r="C13">
-        <v>0.1998998717558038</v>
+        <v>0.5823092409263211</v>
       </c>
       <c r="D13">
-        <v>0.1357228698052921</v>
+        <v>0.08807126120817799</v>
       </c>
       <c r="E13">
-        <v>0.1115569737166471</v>
+        <v>0.04303212200027673</v>
       </c>
       <c r="F13">
-        <v>1.495404145143027</v>
+        <v>0.9865935465422666</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.8395407824559058</v>
+        <v>0.3697957231010562</v>
       </c>
       <c r="J13">
-        <v>0.1248073004845267</v>
+        <v>0.03737573534660399</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3891014038760119</v>
+        <v>0.4706875680324174</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.301695928146657</v>
+        <v>0.7484360353538762</v>
       </c>
       <c r="O13">
-        <v>3.771634209066235</v>
+        <v>2.497376250145976</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.825876879249279</v>
+        <v>4.150721380395453</v>
       </c>
       <c r="C14">
-        <v>0.1969557253326286</v>
+        <v>0.5728922521947197</v>
       </c>
       <c r="D14">
-        <v>0.13552991859153</v>
+        <v>0.08705103079757492</v>
       </c>
       <c r="E14">
-        <v>0.1116248103699302</v>
+        <v>0.04292336742315506</v>
       </c>
       <c r="F14">
-        <v>1.494803643056997</v>
+        <v>0.9761331100153399</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.8405161720730803</v>
+        <v>0.3684596995694633</v>
       </c>
       <c r="J14">
-        <v>0.1249863542898844</v>
+        <v>0.03761568891775013</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3872888669183823</v>
+        <v>0.4631922366596939</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.302998484024968</v>
+        <v>0.750605838460956</v>
       </c>
       <c r="O14">
-        <v>3.770607383188462</v>
+        <v>2.470990872352161</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.812821527499182</v>
+        <v>4.105292246930617</v>
       </c>
       <c r="C15">
-        <v>0.1951512262584458</v>
+        <v>0.5671266056308184</v>
       </c>
       <c r="D15">
-        <v>0.1354124250700863</v>
+        <v>0.0864274167413015</v>
       </c>
       <c r="E15">
-        <v>0.1116670248859499</v>
+        <v>0.04285789198888601</v>
       </c>
       <c r="F15">
-        <v>1.494451420092858</v>
+        <v>0.9697710061951454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.841122708815611</v>
+        <v>0.3676658206663816</v>
       </c>
       <c r="J15">
-        <v>0.1250968013065723</v>
+        <v>0.0377639948720212</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3861810396870737</v>
+        <v>0.4586087098367244</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.303805866670189</v>
+        <v>0.7519608713818968</v>
       </c>
       <c r="O15">
-        <v>3.770020665912085</v>
+        <v>2.454958325161641</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.738069401397638</v>
+        <v>3.845452381241046</v>
       </c>
       <c r="C16">
-        <v>0.184793282774109</v>
+        <v>0.5341210645306944</v>
       </c>
       <c r="D16">
-        <v>0.1347497968018772</v>
+        <v>0.0828732425629255</v>
       </c>
       <c r="E16">
-        <v>0.1119191064106921</v>
+        <v>0.0424998530871612</v>
       </c>
       <c r="F16">
-        <v>1.492672134729432</v>
+        <v>0.9339847427074375</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.8447376891870633</v>
+        <v>0.3634815996046541</v>
       </c>
       <c r="J16">
-        <v>0.1257415575885137</v>
+        <v>0.03863394294571343</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3798695143441506</v>
+        <v>0.4324540953623881</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.308578785692546</v>
+        <v>0.760115987740754</v>
       </c>
       <c r="O16">
-        <v>3.767305786278428</v>
+        <v>2.365002948937132</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.692268968716462</v>
+        <v>3.68645993690933</v>
       </c>
       <c r="C17">
-        <v>0.1784239288643903</v>
+        <v>0.5139005614633732</v>
       </c>
       <c r="D17">
-        <v>0.1343528605154916</v>
+        <v>0.08070972655090003</v>
       </c>
       <c r="E17">
-        <v>0.1120828348686214</v>
+        <v>0.04229521714529483</v>
       </c>
       <c r="F17">
-        <v>1.49179403894928</v>
+        <v>0.9126091203069961</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.8470794911240134</v>
+        <v>0.3612300261037191</v>
       </c>
       <c r="J17">
-        <v>0.1261476562662125</v>
+        <v>0.03918523617810266</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3760307501456595</v>
+        <v>0.4165040626992038</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.311637297256262</v>
+        <v>0.7654583576718821</v>
       </c>
       <c r="O17">
-        <v>3.766217822271557</v>
+        <v>2.311467973400255</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.66594753415427</v>
+        <v>3.595150445568436</v>
       </c>
       <c r="C18">
-        <v>0.1747549615460855</v>
+        <v>0.5022787901845618</v>
       </c>
       <c r="D18">
-        <v>0.1341280821780941</v>
+        <v>0.07947131082081427</v>
       </c>
       <c r="E18">
-        <v>0.1121803505643673</v>
+        <v>0.04218290959897608</v>
       </c>
       <c r="F18">
-        <v>1.491367430873723</v>
+        <v>0.9005184220930857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.8484720308092619</v>
+        <v>0.3600467818233497</v>
       </c>
       <c r="J18">
-        <v>0.1263851173288089</v>
+        <v>0.03950868114586292</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3738350373448469</v>
+        <v>0.4073631099605421</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.313444455934174</v>
+        <v>0.7686526118478767</v>
       </c>
       <c r="O18">
-        <v>3.765804243674353</v>
+        <v>2.281257592120312</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657039343830775</v>
+        <v>3.564257323882828</v>
       </c>
       <c r="C19">
-        <v>0.1735117764034442</v>
+        <v>0.4983451833843446</v>
       </c>
       <c r="D19">
-        <v>0.134052583511064</v>
+        <v>0.07905301220652206</v>
       </c>
       <c r="E19">
-        <v>0.1122139423993129</v>
+        <v>0.04214579922189543</v>
       </c>
       <c r="F19">
-        <v>1.491236463563368</v>
+        <v>0.8964589742057427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.8489513503086528</v>
+        <v>0.3596649806862473</v>
       </c>
       <c r="J19">
-        <v>0.1264661848562634</v>
+        <v>0.03961927495219086</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3730937150838685</v>
+        <v>0.4042736547193755</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.314064573212008</v>
+        <v>0.769754688496846</v>
       </c>
       <c r="O19">
-        <v>3.765700652108279</v>
+        <v>2.271126465162752</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.697142264208026</v>
+        <v>3.703370322844535</v>
       </c>
       <c r="C20">
-        <v>0.1791025263851509</v>
+        <v>0.5160521526053685</v>
       </c>
       <c r="D20">
-        <v>0.1343947501459297</v>
+        <v>0.0809394127631009</v>
       </c>
       <c r="E20">
-        <v>0.1120650597732986</v>
+        <v>0.04231644005970736</v>
       </c>
       <c r="F20">
-        <v>1.49187939478486</v>
+        <v>0.9148632921441049</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.8468254827309778</v>
+        <v>0.3614580487552814</v>
       </c>
       <c r="J20">
-        <v>0.1261040244618385</v>
+        <v>0.03912588972616149</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3764381274032473</v>
+        <v>0.4181985066089453</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.311306748087517</v>
+        <v>0.7648770093233281</v>
       </c>
       <c r="O20">
-        <v>3.766311675950845</v>
+        <v>2.317106130245406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.832138364955142</v>
+        <v>4.172515119729383</v>
       </c>
       <c r="C21">
-        <v>0.1978207271721431</v>
+        <v>0.5756577134755219</v>
       </c>
       <c r="D21">
-        <v>0.135586448350125</v>
+        <v>0.08735042365648127</v>
       </c>
       <c r="E21">
-        <v>0.1116047470406105</v>
+        <v>0.04295507300693835</v>
       </c>
       <c r="F21">
-        <v>1.494976773718747</v>
+        <v>0.9791961206915829</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.8402277836174576</v>
+        <v>0.3688469975226809</v>
       </c>
       <c r="J21">
-        <v>0.1249336011034536</v>
+        <v>0.03754493141639514</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3878207523001294</v>
+        <v>0.4653922066485023</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.30261390601099</v>
+        <v>0.7499630839605231</v>
       </c>
       <c r="O21">
-        <v>3.77090018311651</v>
+        <v>2.478713812879562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.920547090840955</v>
+        <v>4.480631543339086</v>
       </c>
       <c r="C22">
-        <v>0.210003996978827</v>
+        <v>0.614722523152551</v>
       </c>
       <c r="D22">
-        <v>0.1363964211121527</v>
+        <v>0.09159828657259084</v>
       </c>
       <c r="E22">
-        <v>0.1113335758302743</v>
+        <v>0.04342314190745178</v>
       </c>
       <c r="F22">
-        <v>1.497699425404832</v>
+        <v>1.023242016117976</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.8363222613351837</v>
+        <v>0.3747603875934971</v>
       </c>
       <c r="J22">
-        <v>0.124203194114159</v>
+        <v>0.03657078373823985</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3953677127062605</v>
+        <v>0.4965703138693982</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.297359238563651</v>
+        <v>0.7413691666109372</v>
       </c>
       <c r="O22">
-        <v>3.77578961132491</v>
+        <v>2.590051515081853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873345751389991</v>
+        <v>4.316032891311522</v>
       </c>
       <c r="C23">
-        <v>0.2035062101198832</v>
+        <v>0.5938612220189725</v>
       </c>
       <c r="D23">
-        <v>0.1359612893698312</v>
+        <v>0.08932559060841072</v>
       </c>
       <c r="E23">
-        <v>0.1114755951941202</v>
+        <v>0.04316855350671744</v>
       </c>
       <c r="F23">
-        <v>1.496182409259319</v>
+        <v>0.9995415316974032</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.8383695011217114</v>
+        <v>0.3715006117844695</v>
       </c>
       <c r="J23">
-        <v>0.1245898688988714</v>
+        <v>0.03708517129886424</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.391329959269811</v>
+        <v>0.4798973745169803</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.300124750963661</v>
+        <v>0.7458467787475911</v>
       </c>
       <c r="O23">
-        <v>3.773006993252608</v>
+        <v>2.530078059058241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.694939016506737</v>
+        <v>3.695724836921784</v>
       </c>
       <c r="C24">
-        <v>0.178795754676969</v>
+        <v>0.515079408436236</v>
       </c>
       <c r="D24">
-        <v>0.1343758011707195</v>
+        <v>0.08083555479951343</v>
       </c>
       <c r="E24">
-        <v>0.1120730853458198</v>
+        <v>0.04230682857478918</v>
       </c>
       <c r="F24">
-        <v>1.491840561754771</v>
+        <v>0.913843564977185</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.8469401759981352</v>
+        <v>0.3613546142637318</v>
       </c>
       <c r="J24">
-        <v>0.1261237379731011</v>
+        <v>0.03915270004083382</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3762539171085564</v>
+        <v>0.4174323588244988</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.311456037411489</v>
+        <v>0.7651394550226556</v>
       </c>
       <c r="O24">
-        <v>3.766268584633707</v>
+        <v>2.314555357453884</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.503337425576547</v>
+        <v>3.031793502659127</v>
       </c>
       <c r="C25">
-        <v>0.1519325806499694</v>
+        <v>0.430410190809738</v>
       </c>
       <c r="D25">
-        <v>0.1328006805201127</v>
+        <v>0.07190400753635373</v>
       </c>
       <c r="E25">
-        <v>0.1128454624313697</v>
+        <v>0.04158216469043197</v>
       </c>
       <c r="F25">
-        <v>1.490156521343934</v>
+        <v>0.8291107939051301</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.8579280601583186</v>
+        <v>0.35464014304074</v>
       </c>
       <c r="J25">
-        <v>0.1279267868464409</v>
+        <v>0.04162457460157576</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3604607156106283</v>
+        <v>0.3512986502841784</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.325513640109541</v>
+        <v>0.7905573973644451</v>
       </c>
       <c r="O25">
-        <v>3.767111731833609</v>
+        <v>2.104040967152912</v>
       </c>
     </row>
   </sheetData>
